--- a/data/trans_media/IQ27A-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ27A-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>74,48; 79,14</t>
+          <t>74,7; 79,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,95; 77,42</t>
+          <t>73,01; 77,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,61; 79,81</t>
+          <t>75,42; 79,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,72; 89,82</t>
+          <t>81,0; 89,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,6; 78,28</t>
+          <t>73,2; 78,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,88; 75,0</t>
+          <t>71,14; 75,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,85; 76,7</t>
+          <t>72,58; 76,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,08; 96,39</t>
+          <t>86,12; 97,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,74; 78,21</t>
+          <t>74,67; 78,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,62; 75,49</t>
+          <t>72,45; 75,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74,69; 77,54</t>
+          <t>74,61; 77,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,96; 91,59</t>
+          <t>84,77; 91,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>110,13; 113,24</t>
+          <t>109,99; 113,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>107,13; 110,45</t>
+          <t>107,26; 110,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>108,88; 112,37</t>
+          <t>108,99; 112,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>116,52; 122,29</t>
+          <t>116,93; 122,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>109,27; 112,36</t>
+          <t>109,46; 112,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>108,76; 111,52</t>
+          <t>108,68; 111,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>109,65; 112,82</t>
+          <t>109,77; 112,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>111,97; 117,65</t>
+          <t>111,9; 117,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>110,24; 112,38</t>
+          <t>110,17; 112,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>108,35; 110,55</t>
+          <t>108,49; 110,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>109,77; 112,16</t>
+          <t>109,79; 112,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>115,42; 119,37</t>
+          <t>115,34; 119,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>138,87; 142,39</t>
+          <t>138,98; 142,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>134,27; 137,84</t>
+          <t>134,31; 137,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>136,8; 139,54</t>
+          <t>136,87; 139,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>136,25; 141,39</t>
+          <t>136,37; 141,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>138,84; 142,3</t>
+          <t>138,97; 142,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>134,86; 138,52</t>
+          <t>134,86; 138,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>136,24; 139,07</t>
+          <t>136,07; 138,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>134,49; 139,77</t>
+          <t>134,25; 139,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>139,56; 141,82</t>
+          <t>139,64; 141,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>135,15; 137,66</t>
+          <t>135,12; 137,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>136,94; 138,91</t>
+          <t>137,01; 138,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>136,17; 139,95</t>
+          <t>135,93; 139,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>163,39; 165,78</t>
+          <t>163,49; 165,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>160,41; 163,61</t>
+          <t>160,34; 163,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>159,87; 163,09</t>
+          <t>159,95; 163,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>153,16; 157,85</t>
+          <t>152,86; 157,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>157,72; 159,63</t>
+          <t>157,68; 159,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>155,82; 158,54</t>
+          <t>155,97; 158,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>156,28; 158,94</t>
+          <t>156,22; 158,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>147,62; 152,51</t>
+          <t>147,47; 152,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>160,97; 162,56</t>
+          <t>160,97; 162,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>158,59; 160,78</t>
+          <t>158,55; 160,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>158,42; 160,58</t>
+          <t>158,55; 160,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>151,19; 154,64</t>
+          <t>151,03; 154,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>125,69; 129,7</t>
+          <t>125,43; 129,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>120,45; 124,9</t>
+          <t>120,64; 124,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>122,45; 126,47</t>
+          <t>122,29; 126,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>134,78; 138,78</t>
+          <t>134,8; 138,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>124,06; 128,17</t>
+          <t>124,2; 128,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>119,28; 123,59</t>
+          <t>119,37; 123,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>121,16; 124,99</t>
+          <t>121,1; 125,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>131,43; 135,37</t>
+          <t>131,22; 135,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>125,54; 128,37</t>
+          <t>125,42; 128,22</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>120,52; 123,72</t>
+          <t>120,54; 123,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>122,42; 125,3</t>
+          <t>122,29; 125,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>133,5; 136,46</t>
+          <t>133,6; 136,57</t>
         </is>
       </c>
     </row>
